--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qinqiang02/workspace/upay_design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFCA0D88-60A4-5E46-B2CD-CEFFE93B6D03}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{044C515A-1D11-DB4E-BF90-C89DB15DB827}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" activeTab="1" xr2:uid="{3074B17F-D65A-BD41-813A-36FDD96D8EE1}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{3074B17F-D65A-BD41-813A-36FDD96D8EE1}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="80">
   <si>
     <t>源</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -45,10 +45,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>数据中台</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -81,14 +77,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只适合简单查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>历史对账、结算、稽核信息</t>
   </si>
   <si>
@@ -124,10 +112,6 @@
   </si>
   <si>
     <t>运维前台、可视化等</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>…</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -248,10 +232,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>只适合简单查询及简单统计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>近实时</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -277,6 +257,99 @@
   </si>
   <si>
     <t>充值业务数据建模</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各业务前台(原管控台等)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清算处理、结算处理、问题跟踪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支撑需求举例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统一公参服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚户中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>局数据/账户权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆验证、通讯录、角色权限管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>签到签退</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>签到签退服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>签到签退状态查询、退服考核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">交易统计/分析、行为分析、业务巡检、交易查询、考核
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jvm诊断、应用扩容诊断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>监控告警</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>局数据管理、商户权限管理、交易代码查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耗时诊断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史对账、差异数据查询；考核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实时成功率、TPS、耗时、业务量、健康度展示与分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -348,7 +421,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -397,6 +470,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -406,7 +490,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -438,6 +522,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -755,203 +842,255 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BC714B4-6877-0448-AA60-E93AB4D4B427}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView zoomScale="175" workbookViewId="0">
-      <selection sqref="A1:E11"/>
+    <sheetView tabSelected="1" zoomScale="175" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="18.5703125" style="2" customWidth="1"/>
     <col min="2" max="2" width="18" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="2"/>
+    <col min="3" max="3" width="8" style="2" customWidth="1"/>
     <col min="4" max="4" width="19.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="26.7109375" style="2" customWidth="1"/>
     <col min="6" max="16384" width="10.7109375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1">
       <c r="A1" s="5" t="s">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="45">
       <c r="A2" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30">
+      <c r="A4" s="11"/>
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="C4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="7"/>
-      <c r="B4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="6" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="7"/>
+      <c r="A5" s="10"/>
       <c r="B5" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E5" s="3"/>
+        <v>55</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="3" t="s">
+      <c r="B12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
+      <c r="E14" s="3" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="4"/>
@@ -995,7 +1134,24 @@
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
     </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A3:A5"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1005,7 +1161,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC9DC4C2-16DF-1B49-9A46-14019279EC86}">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="185" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="185" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -1018,150 +1174,150 @@
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1">
       <c r="A1" s="5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="36" customHeight="1">
       <c r="A2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17" customHeight="1">
       <c r="A3" s="3"/>
       <c r="B3" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="7"/>
       <c r="B5" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="7"/>
       <c r="B6" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="7"/>
       <c r="B7" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="7"/>
       <c r="B8" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="7"/>
       <c r="B10" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="7"/>
       <c r="B11" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="7"/>
       <c r="B12" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="7"/>
       <c r="B13" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="7"/>
       <c r="B14" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="7"/>
       <c r="B15" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="10"/>
       <c r="B17" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="8" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="8"/>
       <c r="B19" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="8"/>
       <c r="B20" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qinqiang02/workspace/upay_design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{044C515A-1D11-DB4E-BF90-C89DB15DB827}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F192191-EAD2-F845-A6E8-9CA64C83C3D1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{3074B17F-D65A-BD41-813A-36FDD96D8EE1}"/>
   </bookViews>
@@ -408,7 +408,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -418,6 +418,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -490,7 +496,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -503,9 +509,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -526,6 +529,15 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -842,315 +854,355 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BC714B4-6877-0448-AA60-E93AB4D4B427}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" zoomScale="144" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="18" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8" style="2" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="26.7109375" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="10.7109375" style="2"/>
+    <col min="1" max="1" width="10.7109375" style="2"/>
+    <col min="2" max="2" width="18.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18" style="2" customWidth="1"/>
+    <col min="4" max="4" width="8" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="26.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="11"/>
+    <col min="8" max="16384" width="10.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="H1" s="11"/>
+    </row>
+    <row r="2" spans="1:8" s="1" customFormat="1">
+      <c r="A2" s="12"/>
+      <c r="B2" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="45">
-      <c r="A2" s="3" t="s">
+      <c r="G2" s="12"/>
+    </row>
+    <row r="3" spans="1:8" ht="45">
+      <c r="A3" s="11"/>
+      <c r="B3" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="9" t="s">
+    <row r="4" spans="1:8">
+      <c r="A4" s="11"/>
+      <c r="B4" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="30">
-      <c r="A4" s="11"/>
-      <c r="B4" s="3" t="s">
+    <row r="5" spans="1:8" ht="30">
+      <c r="A5" s="11"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="10"/>
-      <c r="B5" s="3" t="s">
+    <row r="6" spans="1:8">
+      <c r="A6" s="11"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="3" t="s">
+    <row r="7" spans="1:8">
+      <c r="A7" s="11"/>
+      <c r="B7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="3" t="s">
+    <row r="8" spans="1:8">
+      <c r="A8" s="11"/>
+      <c r="B8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="7" t="s">
+    <row r="9" spans="1:8">
+      <c r="A9" s="11"/>
+      <c r="B9" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="F9" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="7" t="s">
+    <row r="10" spans="1:8">
+      <c r="A10" s="11"/>
+      <c r="B10" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="E10" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="7" t="s">
+    <row r="11" spans="1:8">
+      <c r="A11" s="11"/>
+      <c r="B11" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="E11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="7" t="s">
+    <row r="12" spans="1:8">
+      <c r="A12" s="11"/>
+      <c r="B12" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="C12" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="F12" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="3" t="s">
+    <row r="13" spans="1:8">
+      <c r="A13" s="11"/>
+      <c r="B13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="E13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="F13" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="3" t="s">
+    <row r="14" spans="1:8">
+      <c r="A14" s="11"/>
+      <c r="B14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="3" t="s">
+    <row r="15" spans="1:8">
+      <c r="A15" s="11"/>
+      <c r="B15" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="C15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="D15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="E15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="F15" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
+    <row r="16" spans="1:8">
+      <c r="A16" s="11"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="11"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="11"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="11"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="11"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="11"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="11"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B4:B6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1173,10 +1225,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1184,18 +1236,18 @@
       <c r="A2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17" customHeight="1">
       <c r="A3" s="3"/>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -1203,31 +1255,31 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="7"/>
+      <c r="A5" s="6"/>
       <c r="B5" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="7"/>
+      <c r="A6" s="6"/>
       <c r="B6" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="7"/>
+      <c r="A7" s="6"/>
       <c r="B7" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="7"/>
+      <c r="A8" s="6"/>
       <c r="B8" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -1235,43 +1287,43 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="7"/>
+      <c r="A10" s="6"/>
       <c r="B10" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="7"/>
+      <c r="A11" s="6"/>
       <c r="B11" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="7"/>
+      <c r="A12" s="6"/>
       <c r="B12" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="7"/>
+      <c r="A13" s="6"/>
       <c r="B13" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="7"/>
+      <c r="A14" s="6"/>
       <c r="B14" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="7"/>
+      <c r="A15" s="6"/>
       <c r="B15" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -1279,13 +1331,13 @@
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="10"/>
+      <c r="A17" s="9"/>
       <c r="B17" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="7" t="s">
         <v>41</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -1293,13 +1345,13 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="8"/>
+      <c r="A19" s="7"/>
       <c r="B19" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="8"/>
+      <c r="A20" s="7"/>
       <c r="B20" s="3" t="s">
         <v>44</v>
       </c>
